--- a/data/trans_camb/P57_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,25</t>
+          <t>-6,01; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,72</t>
+          <t>-4,28; 5,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,86</t>
+          <t>-4,15; 2,22</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,34; 41,97</t>
+          <t>-80,46; 50,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 110,9</t>
+          <t>-52,36; 99,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 36,58</t>
+          <t>-54,46; 46,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -0,75</t>
+          <t>-9,31; -0,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -0,64</t>
+          <t>-7,62; -0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -1,86</t>
+          <t>-7,34; -1,65</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; -4,63</t>
+          <t>-62,95; -1,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -6,6</t>
+          <t>-60,42; -1,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; -17,72</t>
+          <t>-54,69; -13,07</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -2,18</t>
+          <t>-9,64; -2,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -3,14</t>
+          <t>-9,58; -2,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -3,77</t>
+          <t>-8,62; -3,66</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,87; -16,51</t>
+          <t>-59,79; -19,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -25,13</t>
+          <t>-59,26; -22,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,36; -28,05</t>
+          <t>-55,51; -28,5</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -7,53</t>
+          <t>-16,28; -7,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -3,01</t>
+          <t>-10,94; -2,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -6,25</t>
+          <t>-12,45; -6,37</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,7; -40,05</t>
+          <t>-67,49; -39,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,78; -15,2</t>
+          <t>-44,07; -13,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -31,08</t>
+          <t>-52,52; -31,96</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 6,73</t>
+          <t>-2,8; 6,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -2,37</t>
+          <t>-12,85; -2,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,27</t>
+          <t>-6,43; 0,74</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 39,82</t>
+          <t>-12,83; 40,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -8,02</t>
+          <t>-34,88; -8,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 1,22</t>
+          <t>-22,49; 3,52</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -4,07</t>
+          <t>-12,9; -4,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -11,06</t>
+          <t>-27,58; -11,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -9,65</t>
+          <t>-18,97; -9,15</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,36; -13,1</t>
+          <t>-35,74; -13,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-58,8; -26,95</t>
+          <t>-61,45; -27,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -25,88</t>
+          <t>-47,66; -24,81</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,81</t>
+          <t>-6,83; -2,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,41</t>
+          <t>-8,7; -4,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -4,25</t>
+          <t>-6,94; -4,34</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -16,5</t>
+          <t>-34,2; -16,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -20,22</t>
+          <t>-35,9; -20,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -20,99</t>
+          <t>-32,11; -21,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,68</t>
+          <t>-5,77; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,37</t>
+          <t>-3,96; 5,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,22</t>
+          <t>-4,08; 2,05</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,46; 50,54</t>
+          <t>-80,03; 53,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 99,6</t>
+          <t>-50,82; 103,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 46,0</t>
+          <t>-55,85; 42,33</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -0,73</t>
+          <t>-9,13; -0,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -0,23</t>
+          <t>-7,78; -0,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -1,65</t>
+          <t>-7,12; -1,66</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,95; -1,58</t>
+          <t>-62,59; -2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,42; -1,74</t>
+          <t>-61,51; -7,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,69; -13,07</t>
+          <t>-54,16; -14,18</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -2,61</t>
+          <t>-9,56; -2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -2,8</t>
+          <t>-9,75; -2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -3,66</t>
+          <t>-8,44; -3,68</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -19,76</t>
+          <t>-59,45; -18,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,26; -22,64</t>
+          <t>-59,69; -22,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -28,5</t>
+          <t>-54,68; -28,03</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -7,71</t>
+          <t>-16,0; -7,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -2,68</t>
+          <t>-11,6; -3,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -6,37</t>
+          <t>-12,56; -6,47</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -39,59</t>
+          <t>-66,78; -40,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,07; -13,76</t>
+          <t>-45,08; -15,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,52; -31,96</t>
+          <t>-52,14; -31,29</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,76</t>
+          <t>-2,94; 7,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -2,34</t>
+          <t>-13,86; -2,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 0,74</t>
+          <t>-6,92; 0,25</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 40,63</t>
+          <t>-13,26; 43,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,88; -8,05</t>
+          <t>-36,59; -9,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 3,52</t>
+          <t>-23,79; 1,29</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,9; -4,24</t>
+          <t>-12,81; -4,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-27,58; -11,33</t>
+          <t>-26,65; -11,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,97; -9,15</t>
+          <t>-18,33; -9,5</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,74; -13,88</t>
+          <t>-35,82; -13,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,45; -27,34</t>
+          <t>-62,01; -27,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-47,66; -24,81</t>
+          <t>-45,95; -25,21</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -2,91</t>
+          <t>-6,71; -2,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -4,59</t>
+          <t>-8,84; -4,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -4,34</t>
+          <t>-6,82; -4,12</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -16,8</t>
+          <t>-34,28; -16,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -20,69</t>
+          <t>-36,27; -20,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -21,33</t>
+          <t>-31,93; -20,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,9</t>
+          <t>-6,55; 1,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,67</t>
+          <t>-3,91; 5,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,05</t>
+          <t>-3,9; 1,86</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,03; 53,5</t>
+          <t>-82,34; 41,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 103,61</t>
+          <t>-50,36; 110,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 42,33</t>
+          <t>-54,13; 36,58</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -0,63</t>
+          <t>-9,4; -0,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,75</t>
+          <t>-7,76; -0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -1,66</t>
+          <t>-7,4; -1,86</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,59; -2,53</t>
+          <t>-63,2; -4,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,51; -7,36</t>
+          <t>-62,27; -6,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,16; -14,18</t>
+          <t>-57,24; -17,72</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -2,51</t>
+          <t>-9,91; -2,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,91</t>
+          <t>-9,58; -3,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -3,68</t>
+          <t>-8,76; -3,77</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; -18,76</t>
+          <t>-60,87; -16,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,69; -22,64</t>
+          <t>-59,78; -25,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,68; -28,03</t>
+          <t>-55,36; -28,05</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -7,75</t>
+          <t>-16,33; -7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -3,23</t>
+          <t>-11,06; -3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -6,47</t>
+          <t>-12,35; -6,25</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,78; -40,32</t>
+          <t>-67,7; -40,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,08; -15,19</t>
+          <t>-44,78; -15,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -31,29</t>
+          <t>-51,97; -31,08</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,24</t>
+          <t>-3,56; 6,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -2,99</t>
+          <t>-13,47; -2,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,25</t>
+          <t>-7,05; 0,27</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 43,31</t>
+          <t>-15,27; 39,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -9,71</t>
+          <t>-36,17; -8,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 1,29</t>
+          <t>-24,09; 1,22</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -4,34</t>
+          <t>-13,31; -4,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -11,55</t>
+          <t>-26,04; -11,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,33; -9,5</t>
+          <t>-18,79; -9,65</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,82; -13,93</t>
+          <t>-36,36; -13,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-62,01; -27,63</t>
+          <t>-58,8; -26,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,95; -25,21</t>
+          <t>-46,65; -25,88</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -2,94</t>
+          <t>-6,62; -2,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,7</t>
+          <t>-8,84; -4,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -4,12</t>
+          <t>-6,97; -4,25</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -16,46</t>
+          <t>-33,96; -16,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -20,98</t>
+          <t>-35,44; -20,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -20,61</t>
+          <t>-32,07; -20,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,61</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,25</t>
+          <t>-6,6; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,72</t>
+          <t>-4,18; 5,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,86</t>
+          <t>-4,13; 1,41</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-43,99%</t>
+          <t>-46,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>-24,87%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,34; 41,97</t>
+          <t>-83,51; 38,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 110,9</t>
+          <t>-49,71; 107,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 36,58</t>
+          <t>-57,48; 27,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-5,24</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -0,75</t>
+          <t>-9,23; -0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -0,64</t>
+          <t>-8,75; -1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -1,86</t>
+          <t>-7,96; -2,21</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-39,41%</t>
+          <t>-38,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,59%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,47%</t>
+          <t>-43,6%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; -4,63</t>
+          <t>-63,07; -1,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -6,6</t>
+          <t>-71,61; -18,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; -17,72</t>
+          <t>-61,49; -20,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-6,43</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -2,18</t>
+          <t>-10,15; -2,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -3,14</t>
+          <t>-9,79; -3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -3,77</t>
+          <t>-8,97; -4,04</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-42,58%</t>
+          <t>-44,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-44,57%</t>
+          <t>-46,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,61%</t>
+          <t>-45,45%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,87; -16,51</t>
+          <t>-61,99; -19,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -25,13</t>
+          <t>-61,05; -28,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,36; -28,05</t>
+          <t>-57,02; -30,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,85</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-11,33</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -7,53</t>
+          <t>-20,19; -9,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -3,01</t>
+          <t>-11,94; -3,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -6,25</t>
+          <t>-16,58; -8,2</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-54,24%</t>
+          <t>-65,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,59%</t>
+          <t>-34,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-42,19%</t>
+          <t>-51,46%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,7; -40,05</t>
+          <t>-86,82; -46,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,78; -15,2</t>
+          <t>-49,04; -19,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -31,08</t>
+          <t>-71,15; -39,12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-3,67</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 6,73</t>
+          <t>-4,05; 6,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -2,37</t>
+          <t>-13,96; -3,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,27</t>
+          <t>-7,6; -0,26</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>-25,58%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-13,75%</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1009,24 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 39,82</t>
+          <t>-17,31; 36,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -8,02</t>
+          <t>-37,35; -9,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 1,22</t>
+          <t>-25,9; -0,98</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,58</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-16,51</t>
+          <t>-21,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>-15,68</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -4,07</t>
+          <t>-14,24; -2,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -11,06</t>
+          <t>-33,98; -11,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -9,65</t>
+          <t>-25,11; -9,34</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>-31,51%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-37,88%</t>
+          <t>-56,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-33,31%</t>
+          <t>-47,41%</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,36; -13,1</t>
+          <t>-45,25; -12,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-58,8; -26,95</t>
+          <t>-83,87; -31,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -25,88</t>
+          <t>-74,79; -29,77</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-12,62</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,81</t>
+          <t>-16,21; -2,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,41</t>
+          <t>-20,93; -7,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -4,25</t>
+          <t>-17,37; -7,83</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>-23,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-27,43%</t>
+          <t>-29,61%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>-27,68%</t>
         </is>
       </c>
     </row>
@@ -1201,29 +1201,126 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -16,5</t>
+          <t>-37,11; -7,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -20,22</t>
+          <t>-39,51; -18,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -20,99</t>
+          <t>-35,6; -18,45</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-6,06</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-7,7</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; -3,92</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; -5,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; -5,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-32,71%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-32,82%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-32,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-46,66; -22,55</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-45,74; -24,66</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-40,94; -26,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>

--- a/data/trans_camb/P57_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,2</t>
+          <t>-5,73; 0,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 5,64</t>
+          <t>-3,98; 5,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,41</t>
+          <t>-4,0; 1,48</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-83,51; 38,65</t>
+          <t>-78,51; 38,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 107,99</t>
+          <t>-49,63; 93,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 27,93</t>
+          <t>-53,99; 29,22</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,3</t>
+          <t>-9,33; -0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,64</t>
+          <t>-9,22; -1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; -2,21</t>
+          <t>-8,12; -2,65</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,07; -1,67</t>
+          <t>-63,91; -4,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,61; -18,64</t>
+          <t>-70,2; -15,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,49; -20,54</t>
+          <t>-61,53; -22,86</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -2,5</t>
+          <t>-10,16; -2,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -3,45</t>
+          <t>-10,04; -3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -4,04</t>
+          <t>-8,85; -4,24</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -19,31</t>
+          <t>-60,5; -19,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,05; -28,16</t>
+          <t>-62,05; -25,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -30,28</t>
+          <t>-56,99; -32,48</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -9,41</t>
+          <t>-20,39; -9,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -3,82</t>
+          <t>-12,17; -3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -8,2</t>
+          <t>-16,86; -8,33</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,82; -46,56</t>
+          <t>-83,03; -46,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -19,09</t>
+          <t>-48,78; -18,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,15; -39,12</t>
+          <t>-73,02; -40,26</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 6,08</t>
+          <t>-3,56; 6,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -3,03</t>
+          <t>-13,89; -3,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,26</t>
+          <t>-7,35; 0,12</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 36,47</t>
+          <t>-15,98; 38,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,35; -9,83</t>
+          <t>-37,59; -11,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -0,98</t>
+          <t>-25,41; 0,65</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -2,95</t>
+          <t>-14,88; -3,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-33,98; -11,65</t>
+          <t>-33,58; -11,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,11; -9,34</t>
+          <t>-25,67; -9,79</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,25; -12,86</t>
+          <t>-46,99; -13,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-83,87; -31,75</t>
+          <t>-82,46; -30,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,79; -29,77</t>
+          <t>-71,57; -30,64</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -2,9</t>
+          <t>-16,39; -2,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -7,76</t>
+          <t>-20,9; -8,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,37; -7,83</t>
+          <t>-17,57; -8,15</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -7,95</t>
+          <t>-37,13; -6,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,51; -18,28</t>
+          <t>-39,48; -19,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -18,45</t>
+          <t>-35,85; -18,8</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -3,92</t>
+          <t>-8,62; -3,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -5,5</t>
+          <t>-10,63; -5,58</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -5,35</t>
+          <t>-8,88; -5,31</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -22,55</t>
+          <t>-45,62; -22,16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -24,66</t>
+          <t>-44,5; -25,08</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,94; -26,06</t>
+          <t>-41,48; -26,16</t>
         </is>
       </c>
     </row>
